--- a/biology/Zoologie/Draco_maculatus/Draco_maculatus.xlsx
+++ b/biology/Zoologie/Draco_maculatus/Draco_maculatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Draco maculatus ou Dragon volant tacheté est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Draco maculatus ou Dragon volant tacheté est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République populaire de Chine à Hainan, au Guangxi, au Yunnan et au Tibet ;
 en Inde au Mizoram, en Assam et en Arunachal Pradesh ;
 en Birmanie ;
@@ -549,7 +563,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet insectivore ne vole pas : il plane d'arbre en arbre à l'aide de membranes en forme d'ailes qui se prolongent des deux côtés de son corps.
 </t>
@@ -580,9 +596,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles s'aventurent sur le sol afin d'y pondre leurs oeufs dans un trou creusé. Elles les gardent une seule journée avant de quitter le nid, laissant les jeunes se débrouiller par eux-mêmes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles s'aventurent sur le sol afin d'y pondre leurs oeufs dans un trou creusé. Elles les gardent une seule journée avant de quitter le nid, laissant les jeunes se débrouiller par eux-mêmes.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (26 avril 2012)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (26 avril 2012) :
 Draco maculatus divergens Taylor, 1934
 Draco maculatus haasei Boettger, 1893
 Draco maculatus maculatus (Gray, 1845)
@@ -645,7 +665,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Boettger, 1893 : Ein neuer Drache (Draco) aus Siam. Zoologische Anzeiger, vol. 16, p. 429-430 (texte intégral).
 Boulenger, 1900 "1899" : On the reptiles, batrachians, and fishes collected by the late Mr. John Whitehead in the interior of Hainan. Proceedings of the Zoological Society of London, vol. 1999, p. 956-962 (texte intégral).
